--- a/data/weapon_skills.xlsx
+++ b/data/weapon_skills.xlsx
@@ -860,636 +860,1017 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45">
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47">
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48">
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53">
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54">
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55">
+      <c r="A55" s="1">
+        <v>54.0</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56">
+      <c r="A56" s="1">
+        <v>55.0</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57">
+      <c r="A57" s="1">
+        <v>56.0</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" s="1">
+        <v>57.0</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59">
+      <c r="A59" s="1">
+        <v>58.0</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60">
+      <c r="A60" s="1">
+        <v>59.0</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61">
+      <c r="A61" s="1">
+        <v>60.0</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62">
+      <c r="A62" s="1">
+        <v>61.0</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63">
+      <c r="A63" s="1">
+        <v>62.0</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64">
+      <c r="A64" s="1">
+        <v>63.0</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65">
+      <c r="A65" s="1">
+        <v>64.0</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="1">
+        <v>65.0</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" s="1">
+        <v>66.0</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" s="1">
+        <v>67.0</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" s="1">
+        <v>68.0</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="1">
+        <v>69.0</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" s="1">
+        <v>70.0</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" s="1">
+        <v>71.0</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73" s="1">
+        <v>72.0</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" s="1">
+        <v>73.0</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75" s="1">
+        <v>74.0</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76">
+      <c r="A76" s="1">
+        <v>75.0</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77">
+      <c r="A77" s="1">
+        <v>76.0</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" s="1">
+        <v>77.0</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79">
+      <c r="A79" s="1">
+        <v>78.0</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80">
+      <c r="A80" s="1">
+        <v>79.0</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81">
+      <c r="A81" s="1">
+        <v>80.0</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82">
+      <c r="A82" s="1">
+        <v>81.0</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83">
+      <c r="A83" s="1">
+        <v>82.0</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84">
+      <c r="A84" s="1">
+        <v>83.0</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85" s="1">
+        <v>84.0</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" s="1">
+        <v>85.0</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87" s="1">
+        <v>86.0</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88">
+      <c r="A88" s="1">
+        <v>87.0</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89">
+      <c r="A89" s="1">
+        <v>88.0</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90" s="1">
+        <v>89.0</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" s="1">
+        <v>90.0</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92" s="1">
+        <v>91.0</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93">
+      <c r="A93" s="1">
+        <v>92.0</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94">
+      <c r="A94" s="1">
+        <v>93.0</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95">
+      <c r="A95" s="1">
+        <v>94.0</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96">
+      <c r="A96" s="1">
+        <v>95.0</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97">
+      <c r="A97" s="1">
+        <v>96.0</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98" s="1">
+        <v>97.0</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99">
+      <c r="A99" s="1">
+        <v>98.0</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100">
+      <c r="A100" s="1">
+        <v>99.0</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101">
+      <c r="A101" s="1">
+        <v>100.0</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102">
+      <c r="A102" s="1">
+        <v>101.0</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103">
+      <c r="A103" s="1">
+        <v>102.0</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104">
+      <c r="A104" s="1">
+        <v>103.0</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105">
+      <c r="A105" s="1">
+        <v>104.0</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106">
+      <c r="A106" s="1">
+        <v>105.0</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107">
+      <c r="A107" s="1">
+        <v>106.0</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108">
+      <c r="A108" s="1">
+        <v>107.0</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109">
+      <c r="A109" s="1">
+        <v>108.0</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110">
+      <c r="A110" s="1">
+        <v>109.0</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111">
+      <c r="A111" s="1">
+        <v>110.0</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112">
+      <c r="A112" s="1">
+        <v>111.0</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113">
+      <c r="A113" s="1">
+        <v>112.0</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114">
+      <c r="A114" s="1">
+        <v>113.0</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115">
+      <c r="A115" s="1">
+        <v>114.0</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116">
+      <c r="A116" s="1">
+        <v>115.0</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="117">
+      <c r="A117" s="1">
+        <v>116.0</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118">
+      <c r="A118" s="1">
+        <v>117.0</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119">
+      <c r="A119" s="1">
+        <v>118.0</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120">
+      <c r="A120" s="1">
+        <v>119.0</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121">
+      <c r="A121" s="1">
+        <v>120.0</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="122">
+      <c r="A122" s="1">
+        <v>121.0</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="123">
+      <c r="A123" s="1">
+        <v>122.0</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="124">
+      <c r="A124" s="1">
+        <v>123.0</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="125">
+      <c r="A125" s="1">
+        <v>124.0</v>
+      </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="126">
+      <c r="A126" s="1">
+        <v>125.0</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="127">
+      <c r="A127" s="1">
+        <v>126.0</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128">
+      <c r="A128" s="1">
+        <v>127.0</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>128</v>
       </c>

--- a/data/weapon_skills.xlsx
+++ b/data/weapon_skills.xlsx
@@ -860,1017 +860,636 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>29.0</v>
-      </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>30.0</v>
-      </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>32.0</v>
-      </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>33.0</v>
-      </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>34.0</v>
-      </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>35.0</v>
-      </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>36.0</v>
-      </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>37.0</v>
-      </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>38.0</v>
-      </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>39.0</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>40.0</v>
-      </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>41.0</v>
-      </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>42.0</v>
-      </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>43.0</v>
-      </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>44.0</v>
-      </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>45.0</v>
-      </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>46.0</v>
-      </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>47.0</v>
-      </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>48.0</v>
-      </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>49.0</v>
-      </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>50.0</v>
-      </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>51.0</v>
-      </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>52.0</v>
-      </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>53.0</v>
-      </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>54.0</v>
-      </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>55.0</v>
-      </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>56.0</v>
-      </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>57.0</v>
-      </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>58.0</v>
-      </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>59.0</v>
-      </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>60.0</v>
-      </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>61.0</v>
-      </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>62.0</v>
-      </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>63.0</v>
-      </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>64.0</v>
-      </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>65.0</v>
-      </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>66.0</v>
-      </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>67.0</v>
-      </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
-        <v>68.0</v>
-      </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>69.0</v>
-      </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
-        <v>70.0</v>
-      </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
-        <v>71.0</v>
-      </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>72.0</v>
-      </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>73.0</v>
-      </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>74.0</v>
-      </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
-        <v>75.0</v>
-      </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>76.0</v>
-      </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>77.0</v>
-      </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>78.0</v>
-      </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
-        <v>79.0</v>
-      </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
-        <v>80.0</v>
-      </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1">
-        <v>81.0</v>
-      </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>82.0</v>
-      </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>83.0</v>
-      </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>84.0</v>
-      </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1">
-        <v>85.0</v>
-      </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1">
-        <v>86.0</v>
-      </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>87.0</v>
-      </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>88.0</v>
-      </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1">
-        <v>89.0</v>
-      </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1">
-        <v>90.0</v>
-      </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1">
-        <v>91.0</v>
-      </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>92.0</v>
-      </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>93.0</v>
-      </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1">
-        <v>94.0</v>
-      </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>95.0</v>
-      </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>96.0</v>
-      </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1">
-        <v>97.0</v>
-      </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1">
-        <v>98.0</v>
-      </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1">
-        <v>99.0</v>
-      </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>100.0</v>
-      </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1">
-        <v>101.0</v>
-      </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1">
-        <v>102.0</v>
-      </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>103.0</v>
-      </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1">
-        <v>104.0</v>
-      </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1">
-        <v>105.0</v>
-      </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>106.0</v>
-      </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1">
-        <v>107.0</v>
-      </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>108.0</v>
-      </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1">
-        <v>109.0</v>
-      </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1">
-        <v>110.0</v>
-      </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>111.0</v>
-      </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1">
-        <v>112.0</v>
-      </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>113.0</v>
-      </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1">
-        <v>114.0</v>
-      </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1">
-        <v>115.0</v>
-      </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1">
-        <v>116.0</v>
-      </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1">
-        <v>117.0</v>
-      </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1">
-        <v>118.0</v>
-      </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1">
-        <v>119.0</v>
-      </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1">
-        <v>120.0</v>
-      </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1">
-        <v>121.0</v>
-      </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1">
-        <v>122.0</v>
-      </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1">
-        <v>123.0</v>
-      </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1">
-        <v>124.0</v>
-      </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1">
-        <v>125.0</v>
-      </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1">
-        <v>126.0</v>
-      </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1">
-        <v>127.0</v>
-      </c>
       <c r="B128" s="1" t="s">
         <v>128</v>
       </c>
